--- a/【管理】画面設計書_ユーザ一覧.xlsx
+++ b/【管理】画面設計書_ユーザ一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>星</t>
     <phoneticPr fontId="2"/>
@@ -271,16 +271,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hoshi</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -290,13 +280,6 @@
   </si>
   <si>
     <t>hoshis</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザ一覧</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -379,6 +362,21 @@
   </si>
   <si>
     <t>ユーザ詳細画面へ遷移する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -659,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +742,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,60 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,16 +847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -843,8 +865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="2076450"/>
-          <a:ext cx="628650" cy="600075"/>
+          <a:off x="1609725" y="2876550"/>
+          <a:ext cx="590550" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,16 +974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -970,7 +992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857750" y="1990725"/>
+          <a:off x="1524000" y="2705100"/>
           <a:ext cx="209550" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1010,26 +1032,211 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="6477000"/>
+          <a:ext cx="209550" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="2876550"/>
+          <a:ext cx="552450" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="2724150"/>
+          <a:ext cx="209550" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="2076450"/>
-          <a:ext cx="628650" cy="600075"/>
+          <a:off x="1571625" y="5867400"/>
+          <a:ext cx="590550" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,211 +1286,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="8296275"/>
-          <a:ext cx="209550" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="2076450"/>
-          <a:ext cx="628650" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5838825" y="1990725"/>
-          <a:ext cx="209550" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972175" y="5162550"/>
-          <a:ext cx="628650" cy="600075"/>
+          <a:off x="2276475" y="5876925"/>
+          <a:ext cx="552450" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2315,7 +2337,7 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -2437,13 +2459,13 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:30" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
@@ -2468,13 +2490,13 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
@@ -2497,13 +2519,13 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
@@ -2526,13 +2548,13 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="7"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
@@ -2555,13 +2577,13 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="7"/>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
@@ -2582,13 +2604,13 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="V10" s="7"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
@@ -2611,67 +2633,67 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="7"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="6"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="6"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="48"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="6"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
@@ -2692,13 +2714,13 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
@@ -2721,13 +2743,13 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
@@ -2750,13 +2772,13 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="7"/>
+      <c r="AB16" s="6"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
@@ -2779,13 +2801,13 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="7"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="6"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
@@ -2808,13 +2830,13 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
-      <c r="AB18" s="7"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
@@ -2837,13 +2859,13 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
     </row>
     <row r="21" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -2871,13 +2893,13 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
     </row>
     <row r="23" spans="2:28" ht="21" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
@@ -2902,13 +2924,13 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="V23" s="7"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="7"/>
+      <c r="AB23" s="6"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
@@ -2931,13 +2953,13 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="6"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
@@ -2958,13 +2980,13 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="6"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
@@ -2987,19 +3009,19 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="6"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
@@ -3016,13 +3038,13 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="6"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B28" s="5"/>
@@ -3043,13 +3065,13 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
+      <c r="V28" s="7"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="6"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
@@ -3070,13 +3092,13 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
+      <c r="V29" s="7"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="6"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="5"/>
@@ -3099,13 +3121,13 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AB30" s="7"/>
+      <c r="AB30" s="6"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="5"/>
@@ -3114,13 +3136,13 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="V31" s="7"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="6"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="5"/>
@@ -3139,25 +3161,25 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="38" t="s">
+      <c r="N32" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="6"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B33" s="5"/>
@@ -3168,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -3176,25 +3198,25 @@
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="39">
+      <c r="N33" s="42">
         <v>42389</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="39">
-        <v>42449</v>
-      </c>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="30"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="7"/>
+      <c r="AB33" s="6"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="5"/>
@@ -3205,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -3213,25 +3235,25 @@
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="39">
+      <c r="N34" s="42">
         <v>42449</v>
       </c>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="39">
-        <v>42449</v>
-      </c>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="R34" s="30"/>
+      <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
+      <c r="V34" s="7"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
-      <c r="AB34" s="7"/>
+      <c r="AB34" s="6"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B35" s="5"/>
@@ -3249,18 +3271,18 @@
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
-      <c r="AB35" s="7"/>
+      <c r="AB35" s="6"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
@@ -3283,13 +3305,13 @@
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+      <c r="V36" s="7"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
-      <c r="AB36" s="7"/>
+      <c r="AB36" s="6"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B37" s="5"/>
@@ -3312,13 +3334,13 @@
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="V37" s="7"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
-      <c r="AB37" s="7"/>
+      <c r="AB37" s="6"/>
     </row>
     <row r="38" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
@@ -3341,13 +3363,13 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B39" s="6"/>
@@ -3400,26 +3422,26 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="30"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="56"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B42" s="22">
@@ -3507,7 +3529,7 @@
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -3519,7 +3541,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M44" s="27"/>
       <c r="N44" s="27"/>
@@ -3545,7 +3567,7 @@
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="27" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -3557,7 +3579,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M45" s="27"/>
       <c r="N45" s="27"/>
@@ -3579,38 +3601,38 @@
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B48" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
@@ -3632,13 +3654,13 @@
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
@@ -3647,30 +3669,31 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="42"/>
+      <c r="P49" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="F12:O13"/>
+  <mergeCells count="61">
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:AC45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:G49"/>
@@ -3681,7 +3704,6 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="J48:L48"/>
-    <mergeCell ref="Q34:S34"/>
     <mergeCell ref="M49:O49"/>
     <mergeCell ref="P49:AC49"/>
     <mergeCell ref="M48:O48"/>
@@ -3696,26 +3718,29 @@
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:AC44"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="G35:M35"/>
     <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
     <mergeCell ref="F27:O28"/>
     <mergeCell ref="G32:M32"/>
     <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
     <mergeCell ref="G33:M33"/>
     <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
     <mergeCell ref="G34:M34"/>
     <mergeCell ref="N34:P34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:AC44"/>
+    <mergeCell ref="F12:O13"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="L43:AC43"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
@@ -3724,10 +3749,6 @@
     <mergeCell ref="L42:AC42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="L43:AC43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
